--- a/descriptives.xlsx
+++ b/descriptives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiliangerding/Documents/GitHub/ResearchSeminar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E54D319-687E-5A49-BFA7-221E432592EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB35A2-C4FC-644B-8345-AA907E5C01FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{1EB3C49B-6718-FD4C-B5EB-6C23828751F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>House Price</t>
   </si>
@@ -94,6 +94,48 @@
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>logarea</t>
+  </si>
+  <si>
+    <t>loglot</t>
+  </si>
+  <si>
+    <t>loggarage</t>
+  </si>
+  <si>
+    <t>logage</t>
+  </si>
+  <si>
+    <t>num_bedroom</t>
+  </si>
+  <si>
+    <t>num_bathroom</t>
+  </si>
+  <si>
+    <t>num_story</t>
+  </si>
+  <si>
+    <t>num_garage</t>
+  </si>
+  <si>
+    <t>num_pool</t>
+  </si>
+  <si>
+    <t>flag_fireplace</t>
+  </si>
+  <si>
+    <t>flag_tub_or_spa</t>
   </si>
 </sst>
 </file>
@@ -132,10 +174,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985B0462-574B-A547-83D0-FE0FDE707EF7}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:G18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,7 +504,7 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -481,12 +523,21 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>562983</v>
       </c>
       <c r="C2">
@@ -504,12 +555,24 @@
       <c r="G2">
         <v>6882892</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>0.24660550000000001</v>
+      </c>
+      <c r="L2">
+        <v>4.0550600000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3">
         <v>11.66</v>
       </c>
@@ -525,12 +588,24 @@
       <c r="G3">
         <v>10.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>0.66040120000000002</v>
+      </c>
+      <c r="L3">
+        <v>1.5142310000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4">
         <v>1901.37</v>
       </c>
@@ -546,12 +621,24 @@
       <c r="G4">
         <v>18606</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>0.1035266</v>
+      </c>
+      <c r="L4">
+        <v>9.6593529999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5">
         <v>7.48</v>
       </c>
@@ -567,12 +654,24 @@
       <c r="G5">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>0.65310190000000001</v>
+      </c>
+      <c r="L5">
+        <v>1.531155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6">
         <v>52.81</v>
       </c>
@@ -588,12 +687,24 @@
       <c r="G6">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>0.62243539999999997</v>
+      </c>
+      <c r="L6">
+        <v>1.606592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7">
         <v>3.92</v>
       </c>
@@ -609,12 +720,24 @@
       <c r="G7">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.32889620000000003</v>
+      </c>
+      <c r="L7">
+        <v>3.040473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <v>8133.31</v>
       </c>
@@ -630,12 +753,24 @@
       <c r="G8">
         <v>99681</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8">
+        <v>0.68202309999999999</v>
+      </c>
+      <c r="L8">
+        <v>1.466226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9">
         <v>8.84</v>
       </c>
@@ -651,12 +786,24 @@
       <c r="G9">
         <v>6.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0.10352169999999999</v>
+      </c>
+      <c r="L9">
+        <v>9.6598070000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10">
         <v>0.3</v>
       </c>
@@ -672,12 +819,24 @@
       <c r="G10">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>0.85497849999999997</v>
+      </c>
+      <c r="L10">
+        <v>1.1696200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11">
         <v>3.5</v>
       </c>
@@ -693,12 +852,24 @@
       <c r="G11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>0.97439120000000001</v>
+      </c>
+      <c r="L11">
+        <v>1.0262819999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12">
         <v>2.2999999999999998</v>
       </c>
@@ -714,12 +885,24 @@
       <c r="G12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>0.95375010000000005</v>
+      </c>
+      <c r="L12">
+        <v>1.0484929999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13">
         <v>1.39</v>
       </c>
@@ -736,11 +919,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>1.9</v>
       </c>
@@ -757,11 +940,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15">
         <v>478.4</v>
       </c>
@@ -778,11 +961,11 @@
         <v>5596</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>0.21</v>
       </c>
@@ -803,7 +986,7 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>0</v>
       </c>
@@ -824,7 +1007,7 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18">
         <v>0.04</v>
       </c>

--- a/descriptives.xlsx
+++ b/descriptives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiliangerding/Documents/GitHub/ResearchSeminar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB35A2-C4FC-644B-8345-AA907E5C01FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31540763-008B-504C-83A4-8E952D2826F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{1EB3C49B-6718-FD4C-B5EB-6C23828751F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>House Price</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>flag_tub_or_spa</t>
+  </si>
+  <si>
+    <t>Correlations</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Partial</t>
   </si>
 </sst>
 </file>
@@ -171,13 +186,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985B0462-574B-A547-83D0-FE0FDE707EF7}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V14" sqref="P1:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,515 +522,824 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="R2">
+        <v>2016</v>
+      </c>
+      <c r="U2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>562983</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>148732</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>132372.43</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>174</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>6883066</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>6882892</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <v>0.24660550000000001</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <v>4.0550600000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3">
-        <v>11.66</v>
-      </c>
-      <c r="D3">
-        <v>0.69</v>
-      </c>
-      <c r="E3">
-        <v>5.16</v>
-      </c>
-      <c r="F3">
-        <v>15.74</v>
-      </c>
-      <c r="G3">
-        <v>10.59</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>0.66040120000000002</v>
-      </c>
-      <c r="L3">
-        <v>1.5142310000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4">
-        <v>1901.37</v>
-      </c>
-      <c r="D4">
-        <v>767.7</v>
-      </c>
-      <c r="E4">
-        <v>102</v>
-      </c>
-      <c r="F4">
-        <v>18708</v>
-      </c>
-      <c r="G4">
-        <v>18606</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>0.1035266</v>
-      </c>
-      <c r="L4">
-        <v>9.6593529999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>0.24655969999999999</v>
+      </c>
+      <c r="N4">
+        <v>4.0558139999999998</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="S4">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="T4">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
-        <v>7.48</v>
+        <v>11.66</v>
       </c>
       <c r="D5">
-        <v>0.36</v>
+        <v>0.69</v>
       </c>
       <c r="E5">
-        <v>4.62</v>
+        <v>5.16</v>
       </c>
       <c r="F5">
-        <v>9.84</v>
+        <v>15.74</v>
       </c>
       <c r="G5">
-        <v>5.21</v>
+        <v>10.59</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.65310190000000001</v>
+        <v>0.66040120000000002</v>
       </c>
       <c r="L5">
-        <v>1.531155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.5142310000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.65991250000000001</v>
+      </c>
+      <c r="N5">
+        <v>1.515352</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="R5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="S5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="U5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="V5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
-        <v>52.81</v>
+        <v>1901.37</v>
       </c>
       <c r="D6">
-        <v>14.83</v>
+        <v>767.7</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F6">
-        <v>147</v>
+        <v>18708</v>
       </c>
       <c r="G6">
-        <v>141</v>
+        <v>18606</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.62243539999999997</v>
+        <v>0.1035266</v>
       </c>
       <c r="L6">
-        <v>1.606592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.6593529999999994</v>
+      </c>
+      <c r="M6">
+        <v>0.1040813</v>
+      </c>
+      <c r="N6">
+        <v>9.6078690000000009</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="R6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T6">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="U6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7">
-        <v>3.92</v>
+        <v>7.48</v>
       </c>
       <c r="D7">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="E7">
-        <v>1.79</v>
+        <v>4.62</v>
       </c>
       <c r="F7">
-        <v>4.99</v>
+        <v>9.84</v>
       </c>
       <c r="G7">
-        <v>3.2</v>
+        <v>5.21</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.32889620000000003</v>
+        <v>0.65310190000000001</v>
       </c>
       <c r="L7">
-        <v>3.040473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.531155</v>
+      </c>
+      <c r="M7">
+        <v>0.65958300000000003</v>
+      </c>
+      <c r="N7">
+        <v>1.5161100000000001</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>-0.63800000000000001</v>
+      </c>
+      <c r="R7">
+        <v>-0.436</v>
+      </c>
+      <c r="S7">
+        <v>-0.28299999999999997</v>
+      </c>
+      <c r="T7">
+        <v>-0.628</v>
+      </c>
+      <c r="U7">
+        <v>-0.42299999999999999</v>
+      </c>
+      <c r="V7">
+        <v>-0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8">
-        <v>8133.31</v>
+        <v>52.81</v>
       </c>
       <c r="D8">
-        <v>6680.41</v>
+        <v>14.83</v>
       </c>
       <c r="E8">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>99785</v>
+        <v>147</v>
       </c>
       <c r="G8">
-        <v>99681</v>
+        <v>141</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.68202309999999999</v>
+        <v>0.62243539999999997</v>
       </c>
       <c r="L8">
-        <v>1.466226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.606592</v>
+      </c>
+      <c r="M8">
+        <v>0.62251310000000004</v>
+      </c>
+      <c r="N8">
+        <v>1.606392</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="R8">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="S8">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="T8">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="U8">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="V8">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9">
-        <v>8.84</v>
+        <v>3.92</v>
       </c>
       <c r="D9">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="E9">
-        <v>4.6399999999999997</v>
+        <v>1.79</v>
       </c>
       <c r="F9">
-        <v>11.51</v>
+        <v>4.99</v>
       </c>
       <c r="G9">
-        <v>6.87</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.10352169999999999</v>
+        <v>0.32889620000000003</v>
       </c>
       <c r="L9">
-        <v>9.6598070000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3.040473</v>
+      </c>
+      <c r="M9">
+        <v>0.3285457</v>
+      </c>
+      <c r="N9">
+        <v>3.043717</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9">
+        <v>0.66</v>
+      </c>
+      <c r="R9">
+        <v>0.111</v>
+      </c>
+      <c r="S9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.66</v>
+      </c>
+      <c r="U9">
+        <v>0.112</v>
+      </c>
+      <c r="V9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10">
-        <v>0.3</v>
+        <v>8133.31</v>
       </c>
       <c r="D10">
-        <v>0.22</v>
+        <v>6680.41</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>104</v>
       </c>
       <c r="F10">
-        <v>29.71</v>
+        <v>99785</v>
       </c>
       <c r="G10">
-        <v>29.7</v>
+        <v>99681</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.85497849999999997</v>
+        <v>0.68202309999999999</v>
       </c>
       <c r="L10">
-        <v>1.1696200000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
+        <v>1.466226</v>
+      </c>
+      <c r="M10">
+        <v>0.68321370000000003</v>
+      </c>
+      <c r="N10">
+        <v>1.4636709999999999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="R10">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="S10">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="T10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="U10">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="V10">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11">
-        <v>3.5</v>
+        <v>8.84</v>
       </c>
       <c r="D11">
-        <v>0.82</v>
+        <v>0.53</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11.51</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>6.87</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.97439120000000001</v>
+        <v>0.10352169999999999</v>
       </c>
       <c r="L11">
-        <v>1.0262819999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
+        <v>9.6598070000000007</v>
+      </c>
+      <c r="M11">
+        <v>0.1039472</v>
+      </c>
+      <c r="N11">
+        <v>9.6202670000000001</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="R11">
+        <v>1E-3</v>
+      </c>
+      <c r="S11">
+        <v>1E-3</v>
+      </c>
+      <c r="T11">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="U11">
+        <v>1E-3</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12">
-        <v>2.2999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>0.73</v>
+        <v>0.22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>29.71</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>29.7</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.95375010000000005</v>
+        <v>0.85497849999999997</v>
       </c>
       <c r="L12">
-        <v>1.0484929999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.1696200000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.85303370000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.1722870000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.06</v>
+      </c>
+      <c r="T12">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="U12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="V12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13">
-        <v>1.39</v>
+        <v>3.5</v>
       </c>
       <c r="D13">
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0.97439120000000001</v>
+      </c>
+      <c r="L13">
+        <v>1.0262819999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.97442759999999995</v>
+      </c>
+      <c r="N13">
+        <v>1.026243</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="R13">
+        <v>2E-3</v>
+      </c>
+      <c r="S13">
+        <v>1E-3</v>
+      </c>
+      <c r="T13">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="U13">
+        <v>2E-3</v>
+      </c>
+      <c r="V13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.95375010000000005</v>
+      </c>
+      <c r="L14">
+        <v>1.0484929999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.95122580000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.051275</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14">
+        <v>0.151</v>
+      </c>
+      <c r="R14">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T14">
+        <v>0.154</v>
+      </c>
+      <c r="U14">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15">
-        <v>478.4</v>
+        <v>1.39</v>
       </c>
       <c r="D15">
-        <v>131.37</v>
+        <v>0.54</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>5596</v>
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>5596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16">
-        <v>0.21</v>
+        <v>1.9</v>
       </c>
       <c r="D16">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17">
-        <v>0</v>
+        <v>478.4</v>
       </c>
       <c r="D17">
-        <v>7.0000000000000007E-2</v>
+        <v>131.37</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>5596</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="D18">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1024,9 +1351,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20">
+        <v>0.04</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B18"/>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B20"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
